--- a/ResultadoEleicoesDistritos/SANTARÉM_OURÉM.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_OURÉM.xlsx
@@ -597,64 +597,64 @@
         <v>12139</v>
       </c>
       <c r="H2" t="n">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="I2" t="n">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="J2" t="n">
-        <v>5112</v>
+        <v>4983</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>1388</v>
+        <v>1404</v>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="N2" t="n">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="S2" t="n">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="T2" t="n">
-        <v>831</v>
+        <v>878</v>
       </c>
       <c r="U2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="V2" t="n">
-        <v>7760</v>
+        <v>7730</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>7808</v>
+        <v>7870</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
